--- a/raw_data/KEEN ONE/Byrnes/2016/Calf Island 2016/CalfIsland_siteinfo_2016.xlsx
+++ b/raw_data/KEEN ONE/Byrnes/2016/Calf Island 2016/CalfIsland_siteinfo_2016.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="1120" windowWidth="22440" windowHeight="6120" tabRatio="500"/>
+    <workbookView xWindow="200" yWindow="1120" windowWidth="23400" windowHeight="9980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>Team</t>
   </si>
@@ -63,18 +63,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Transect 1</t>
-  </si>
-  <si>
-    <t>Transect 2</t>
-  </si>
-  <si>
-    <t>Transect 3</t>
-  </si>
-  <si>
-    <t>Transect 4</t>
-  </si>
-  <si>
     <t>CALF_ISLAND</t>
   </si>
   <si>
@@ -94,6 +82,15 @@
   </si>
   <si>
     <t>(END COORDS EST, HEADING 347.37)</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -529,15 +526,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,211 +547,256 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:17">
       <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4">
+        <v>30</v>
+      </c>
+      <c r="G2" s="4">
+        <v>2016</v>
+      </c>
+      <c r="H2" s="5">
+        <v>42612</v>
+      </c>
+      <c r="I2">
+        <v>42.345714999999998</v>
+      </c>
+      <c r="J2" s="3">
+        <v>-70.891319999999993</v>
+      </c>
+      <c r="K2" s="3">
+        <v>42.345371</v>
+      </c>
+      <c r="L2" s="3">
+        <v>-70.891497999999999</v>
+      </c>
+      <c r="M2" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="N2" s="3">
+        <v>10.4</v>
+      </c>
+      <c r="O2" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="P2" s="3">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4">
+        <v>29</v>
+      </c>
+      <c r="G3" s="4">
+        <v>2016</v>
+      </c>
+      <c r="H3" s="5">
+        <v>42611</v>
+      </c>
+      <c r="I3">
+        <v>42.343801999999997</v>
+      </c>
+      <c r="J3" s="3">
+        <v>-70.891199999999998</v>
+      </c>
+      <c r="K3" s="3">
+        <v>42.344107999999999</v>
+      </c>
+      <c r="L3" s="3">
+        <v>-70.890998999999994</v>
+      </c>
+      <c r="M3" s="3">
+        <v>7.6</v>
+      </c>
+      <c r="N3" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="O3" s="3">
+        <v>2</v>
+      </c>
+      <c r="P3" s="6">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4">
+        <v>25</v>
+      </c>
+      <c r="G4" s="4">
+        <v>2016</v>
+      </c>
+      <c r="H4" s="5">
+        <v>42607</v>
+      </c>
+      <c r="I4">
+        <v>42.342275000000001</v>
+      </c>
+      <c r="J4" s="3">
+        <v>-70.891011000000006</v>
+      </c>
+      <c r="K4" s="7">
+        <v>42.341937999999999</v>
+      </c>
+      <c r="L4" s="3">
+        <v>-70.891143999999997</v>
+      </c>
+      <c r="M4" s="3">
+        <v>6</v>
+      </c>
+      <c r="N4" s="3">
+        <v>5</v>
+      </c>
+      <c r="O4" s="3">
+        <v>3</v>
+      </c>
+      <c r="P4" s="6">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4">
+        <v>4</v>
+      </c>
+      <c r="E5" s="4">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2016</v>
+      </c>
+      <c r="H5" s="5">
+        <v>42614</v>
+      </c>
+      <c r="I5">
+        <v>42.340155000000003</v>
+      </c>
+      <c r="J5" s="3">
+        <v>-70.893770000000004</v>
+      </c>
+      <c r="K5" s="3">
+        <v>42.340522</v>
+      </c>
+      <c r="L5" s="3">
+        <v>-70.893860000000004</v>
+      </c>
+      <c r="M5" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="N5" s="3">
+        <v>9.5</v>
+      </c>
+      <c r="O5" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="P5" s="3">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="5">
-        <v>42612</v>
-      </c>
-      <c r="F2">
-        <v>42.345714999999998</v>
-      </c>
-      <c r="G2" s="3">
-        <v>-70.891319999999993</v>
-      </c>
-      <c r="H2" s="3">
-        <v>42.345371</v>
-      </c>
-      <c r="I2" s="3">
-        <v>-70.891497999999999</v>
-      </c>
-      <c r="J2" s="3">
-        <v>6.4</v>
-      </c>
-      <c r="K2" s="3">
-        <v>10.4</v>
-      </c>
-      <c r="L2" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="M2" s="3">
-        <v>13</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="5">
-        <v>42611</v>
-      </c>
-      <c r="F3">
-        <v>42.343801999999997</v>
-      </c>
-      <c r="G3" s="3">
-        <v>-70.891199999999998</v>
-      </c>
-      <c r="H3" s="3">
-        <v>42.344107999999999</v>
-      </c>
-      <c r="I3" s="3">
-        <v>-70.890998999999994</v>
-      </c>
-      <c r="J3" s="3">
-        <v>7.6</v>
-      </c>
-      <c r="K3" s="3">
-        <v>6.3</v>
-      </c>
-      <c r="L3" s="3">
-        <v>2</v>
-      </c>
-      <c r="M3" s="6">
-        <v>15</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="5">
-        <v>42607</v>
-      </c>
-      <c r="F4">
-        <v>42.342275000000001</v>
-      </c>
-      <c r="G4" s="3">
-        <v>-70.891011000000006</v>
-      </c>
-      <c r="H4" s="7">
-        <v>42.341937999999999</v>
-      </c>
-      <c r="I4" s="3">
-        <v>-70.891143999999997</v>
-      </c>
-      <c r="J4" s="3">
-        <v>6</v>
-      </c>
-      <c r="K4" s="3">
-        <v>5</v>
-      </c>
-      <c r="L4" s="3">
-        <v>3</v>
-      </c>
-      <c r="M4" s="6">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="5">
-        <v>42614</v>
-      </c>
-      <c r="F5">
-        <v>42.340155000000003</v>
-      </c>
-      <c r="G5" s="3">
-        <v>-70.893770000000004</v>
-      </c>
-      <c r="H5" s="3">
-        <v>42.340522</v>
-      </c>
-      <c r="I5" s="3">
-        <v>-70.893860000000004</v>
-      </c>
-      <c r="J5" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="K5" s="3">
-        <v>9.5</v>
-      </c>
-      <c r="L5" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="M5" s="3">
-        <v>14</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
